--- a/31 Jan 2022/web Scraping/espnScraper/abc.xlsx
+++ b/31 Jan 2022/web Scraping/espnScraper/abc.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -531,9 +531,37 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Bruce</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Bannner</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Bruce</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Bannner</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F14"/>
   </ignoredErrors>
 </worksheet>
 </file>